--- a/src/services/excel/templates/import-parent-template.xlsx
+++ b/src/services/excel/templates/import-parent-template.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\SchoolMedix_BE\src\services\excel\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328DA1A9-C627-4035-8804-12DAA2136577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PARENT" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,12 +24,128 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>isMale</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>14/03/2000</t>
+  </si>
+  <si>
+    <t>Số 1 Tràng Tiền Hà Nội</t>
+  </si>
+  <si>
+    <t>0362718422</t>
+  </si>
+  <si>
+    <t>Trần Thị B</t>
+  </si>
+  <si>
+    <t>20/11/1993</t>
+  </si>
+  <si>
+    <t>Số 2 Phố Cổ Hội An</t>
+  </si>
+  <si>
+    <t>0123321123</t>
+  </si>
+  <si>
+    <t>mndkhanh@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn C</t>
+  </si>
+  <si>
+    <t>Số 3 Trần Phú Nha Trang</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>asdffd@gmail.com</t>
+  </si>
+  <si>
+    <t>Trần Thị D</t>
+  </si>
+  <si>
+    <t>20/11/1990</t>
+  </si>
+  <si>
+    <t>Số 4 Phố Cổ Huế</t>
+  </si>
+  <si>
+    <t>fdsa@gmail.com</t>
+  </si>
+  <si>
+    <t>Kim Jong Un</t>
+  </si>
+  <si>
+    <t>Số 5 Ngô Tất Tố</t>
+  </si>
+  <si>
+    <t>aS@gmail.com</t>
+  </si>
+  <si>
+    <t>Kim Ji Jok</t>
+  </si>
+  <si>
+    <t>Địa bàn Phường Nam Nha Trang</t>
+  </si>
+  <si>
+    <t>hi@gmail.com</t>
+  </si>
+  <si>
+    <t>Lee Chong Whey</t>
+  </si>
+  <si>
+    <t>Địa bàn Phường Bắc Từ Liêm</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +168,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +470,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
+        <v>32185</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" display="mailto:fdsa@gmail.com" xr:uid="{4BF2B5E7-059C-4853-B820-F57D9241B613}"/>
+    <hyperlink ref="A7" r:id="rId2" display="mailto:aS@gmail.com" xr:uid="{ECF43D15-F489-47D1-BCBB-3AA7FC28FA2D}"/>
+    <hyperlink ref="A8" r:id="rId3" display="mailto:hi@gmail.com" xr:uid="{FC86CBD7-4032-483B-80A4-A2A6DDAB7FE0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/services/excel/templates/import-parent-template.xlsx
+++ b/src/services/excel/templates/import-parent-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\SchoolMedix_BE\src\services\excel\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328DA1A9-C627-4035-8804-12DAA2136577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9A1690-7F33-4820-843C-7BE179DEF25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>email</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Nguyễn Văn A</t>
   </si>
   <si>
-    <t>14/03/2000</t>
-  </si>
-  <si>
     <t>Số 1 Tràng Tiền Hà Nội</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>Trần Thị B</t>
   </si>
   <si>
-    <t>20/11/1993</t>
-  </si>
-  <si>
     <t>Số 2 Phố Cổ Hội An</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
   </si>
   <si>
     <t>Trần Thị D</t>
-  </si>
-  <si>
-    <t>20/11/1990</t>
   </si>
   <si>
     <t>Số 4 Phố Cổ Huế</t>
@@ -124,8 +115,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-1010000]yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -172,7 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -189,6 +181,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -474,7 +469,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,135 +506,135 @@
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
+      <c r="C2" s="7">
+        <v>36620</v>
       </c>
       <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="7">
+        <v>36620</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2">
-        <v>32185</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="7">
+        <v>36621</v>
       </c>
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="7">
+        <v>36622</v>
       </c>
       <c r="D5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="C6" s="7">
+        <v>36623</v>
       </c>
       <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="7">
+        <v>36624</v>
       </c>
       <c r="D7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="C8" s="7">
+        <v>36625</v>
       </c>
       <c r="D8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
